--- a/Tables/Sources/gameplay/Pub/Pub.xlsx
+++ b/Tables/Sources/gameplay/Pub/Pub.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>1001|Hero|20|30;</t>
+    <t>1001|Hero|20|30</t>
   </si>
   <si>
     <t>icon_Apple</t>
@@ -73,19 +73,34 @@
     <t>animation_Apple</t>
   </si>
   <si>
-    <t>1002|Hero|20|30;</t>
-  </si>
-  <si>
-    <t>1003|Hero|20|30;</t>
-  </si>
-  <si>
-    <t>1004|Hero|20|30;</t>
-  </si>
-  <si>
-    <t>1005|Hero|20|30;</t>
-  </si>
-  <si>
-    <t>1006|Hero|20|30;</t>
+    <t>1001|Hero|20|31</t>
+  </si>
+  <si>
+    <t>1001|Hero|20|32</t>
+  </si>
+  <si>
+    <t>1001|Hero|20|33</t>
+  </si>
+  <si>
+    <t>1001|Hero|20|34</t>
+  </si>
+  <si>
+    <t>1001|Hero|20|35</t>
+  </si>
+  <si>
+    <t>1001|Hero|20|36</t>
+  </si>
+  <si>
+    <t>1001|Hero|20|37</t>
+  </si>
+  <si>
+    <t>1001|Hero|20|38</t>
+  </si>
+  <si>
+    <t>1001|Hero|20|39</t>
+  </si>
+  <si>
+    <t>1001|Hero|20|40</t>
   </si>
 </sst>
 </file>
@@ -93,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -121,82 +136,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +249,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -279,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +499,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,21 +544,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,10 +1079,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1281,6 +1296,106 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
